--- a/WeatherData1.xlsx
+++ b/WeatherData1.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WeatherData1!$A$1:$Y$80</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="369">
   <si>
     <t>file</t>
   </si>
@@ -33,240 +33,15 @@
     <t>energy_plus_location_name</t>
   </si>
   <si>
-    <t xml:space="preserve">  'Kuujuaq_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'La Grande Riviere_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Lake Eon_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Lethbridge_AB_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'London_ON_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Medicine Hat_AB_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Miramichi_NB_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Mont Joli_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Montreal Int'l_PQ_CAN"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Montreal Jean Brebeuf_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Montreal Mirabel_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Mount Forest_ON_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Muskoka_ON_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Nitchequon_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'North Battleford_SK_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'North Bay_ON_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Ottawa Int'l_ON_CAN"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Port Hardy_BC_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Prince George_BC_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Prince Rupert_BC_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Quebec City_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Regina_SK_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Resolute_NU_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Riviere Du Loup_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Roberval_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Sable Island_NS_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Saint John_NB_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Sandspit_BC_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Saskatoon_SK_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Sault Ste Marie_ON_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Schefferville_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Sept-Iles_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Shearwater_NS_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Sherbrooke_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Simcoe_ON_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Smithers_BC_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'St Hubert_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "St John's_NF_CAN"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Ste Agathe Des Monts_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Stephenville_NF_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Summerland_BC_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Swift Current_SK_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Sydney_NS_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'The Pas_MB_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Thunder Bay_ON_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Timmins_ON_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Toronto Int'l_ON_CAN"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Trenton_ON_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Truro_NS_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Val d'Or_PQ_CAN"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Vancouver Int'l_BC_CAN"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Victoria Int'l_BC_CAN"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Whitehorse_YT_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Windsor_ON_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Winnipeg Int'l_MB_CAN"</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
-    <t xml:space="preserve">  'CAN'</t>
-  </si>
-  <si>
     <t>state_province_region</t>
   </si>
   <si>
-    <t xml:space="preserve">  'PQ'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'AB'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'ON'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'NB'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'SK'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'BC'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'NU'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'NS'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'NF'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'MB'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'YT'</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
-    <t xml:space="preserve">  "Montreal Int'l"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Ottawa Int'l"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "St John's"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Toronto Int'l"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Val d'Or"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Vancouver Int'l"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Victoria Int'l"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Winnipeg Int'l"</t>
-  </si>
-  <si>
     <t>hdd18</t>
   </si>
   <si>
@@ -288,66 +63,27 @@
     <t>a90_1_2004_climate_zone</t>
   </si>
   <si>
-    <t xml:space="preserve">  '6B'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  '6A'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  '5C'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  '5A'</t>
-  </si>
-  <si>
     <t>boiler_fueltype</t>
   </si>
   <si>
-    <t xml:space="preserve">  'Electricity'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'NaturalGas'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'FuelOil#2'</t>
-  </si>
-  <si>
     <t>baseboard_type</t>
   </si>
   <si>
-    <t xml:space="preserve">  'Electric'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Hot Water'</t>
-  </si>
-  <si>
     <t>mau_type</t>
   </si>
   <si>
-    <t xml:space="preserve">  true</t>
-  </si>
-  <si>
     <t>mau_heating_coil_type</t>
   </si>
   <si>
     <t>mau_cooling_type</t>
   </si>
   <si>
-    <t xml:space="preserve">  'DX'</t>
-  </si>
-  <si>
     <t>chiller_type</t>
   </si>
   <si>
-    <t xml:space="preserve">  'Scroll'</t>
-  </si>
-  <si>
     <t>heating_coil_type_sys_3</t>
   </si>
   <si>
-    <t xml:space="preserve">  'Gas'</t>
-  </si>
-  <si>
     <t>heating_coil_type_sys4</t>
   </si>
   <si>
@@ -357,781 +93,1042 @@
     <t>fan_type</t>
   </si>
   <si>
-    <t xml:space="preserve">  'var_speed_drive' </t>
-  </si>
-  <si>
-    <t>'CAN_BC_Abbotsford.711080_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Baie.Comeau.711870_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_NF_Battle.Harbour.718170_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_MB_Brandon.711400_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_AB_Calgary.718770_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PE_Charlottetown.717060_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_MB_Churchill.719130_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_BC_Comox.718930_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_BC_Cranbrook.718800_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_AB_Edmonton.711230_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_SK_Estevan.718620_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_AB_Fort.McMurray.719320_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_BC_Fort.St.John.719430_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_NB_Fredericton.717000_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_NF_Gander.718030_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_NF_Goose.718160_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_AB_Grande.Prairie.719400_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_NS_Greenwood.713970_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Grindstone.Island_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_NT_Inuvik.719570_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_BC_Kamloops.718870_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_ON_Kingston.716200_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Kuujjuarapik.719050_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Kuujuaq.719060_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_La.Grande.Riviere.718270_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Lake.Eon.714210_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_AB_Lethbridge.712430_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_ON_London.716230_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_AB_Medicine.Hat.718720_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_NB_Miramichi.717440_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Mont.Joli.717180_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Montreal.Intl.AP.716270_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Montreal.Jean.Brebeuf.716278_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Montreal.Mirabel.716278_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_ON_Mount.Forest.716310_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_ON_Muskoka.716300_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Nitchequon.CAN270_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_SK_North.Battleford.718760_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_ON_North.Bay.717310_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_ON_Ottawa.716280_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_BC_Port.Hardy.711090_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_BC_Prince.George.718960_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_BC_Prince.Rupert.718980_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Quebec.717140_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_SK_Regina.718630_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_NU_Resolute.719240_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Riviere.du.Loup.717150_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Roberval.717280_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_NS_Sable.Island.716000_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_NB_Saint.John.716090_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_BC_Sandspit.711010_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_SK_Saskatoon.718660_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_ON_Sault.Ste.Marie.712600_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Schefferville.718280_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Sept-Iles.718110_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_NS_Shearwater.716010_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Sherbrooke.716100_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_ON_Simcoe.715270_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_BC_Smithers.719500_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_St.Hubert.713710_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_NF_St.Johns.718010_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Ste.Agathe.des.Monts.717200_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_NF_Stephenville.718150_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_BC_Summerland.717680_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_SK_Swift.Current.718700_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_NS_Sydney.717070_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_MB_The.Pas.718670_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_ON_Thunder.Bay.717490_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_ON_Timmins.717390_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_ON_Toronto.716240_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_ON_Trenton.716210_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_NS_Truro.713980_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_PQ_Val.d.Or.717250_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_BC_Vancouver.718920_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_BC_Victoria.717990_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_YT_Whitehorse.719640_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_ON_Windsor.715380_CWEC.epw'</t>
-  </si>
-  <si>
-    <t>'CAN_MB_Winnipeg.718520_CWEC.epw'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-BC-Abbotsford'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Bagotville'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Baie Comeau'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-NF-Battle Harbour'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-MB-Brandon'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  " CAN-AB-Calgary Int'l"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PE-Charlottetown CDA'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-MB-Churchill'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-BC-Comox'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-BC-Cranbrook'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-AB-Edmonton Stony Plain'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-SK-Estevan'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-AB-Fort McMurray'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-BC-Fort St John'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-NB-Fredericton'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  " CAN-NF-Gander Int'l"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-NF-Goose'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-AB-Grand Prairie'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-NS-Greenwood'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Grindstone Island'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-NT-Inuvik Ua'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-BC-Kamloops'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-ON-Kingston'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Kuujjuarapik'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Kuujuaq'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-La Grande Riviere'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Lake Eon'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-AB-Lethbridge'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-ON-London'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-AB-Medicine Hat'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-NB-Miramichi'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Mont Joli'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  " CAN-PQ-Montreal Int'l"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Montreal Jean Brebeuf'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Montreal Mirabel'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-ON-Mount Forest'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-ON-Muskoka'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Nitchequon'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-SK-North Battleford'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-ON-North Bay'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  " CAN-ON-Ottawa Int'l"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-BC-Port Hardy'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-BC-Prince George'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-BC-Prince Rupert'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Quebec City'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-SK-Regina'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-NU-Resolute'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Riviere Du Loup'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Roberval'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-NS-Sable Island'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-NB-Saint John'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-BC-Sandspit'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-SK-Saskatoon'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-ON-Sault Ste Marie'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Schefferville'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Sept-Iles'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-NS-Shearwater'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Sherbrooke'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-ON-Simcoe'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-BC-Smithers'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-St Hubert'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  " CAN-NF-St John's"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-PQ-Ste Agathe Des Monts'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-NF-Stephenville'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-BC-Summerland'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-SK-Swift Current'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-NS-Sydney'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-MB-The Pas'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-ON-Thunder Bay'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-ON-Timmins'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  " CAN-ON-Toronto Int'l"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-ON-Trenton'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-NS-Truro'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  " CAN-PQ-Val d'Or"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  " CAN-BC-Vancouver Int'l"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  " CAN-BC-Victoria Int'l"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-YT-Whitehorse'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ' CAN-ON-Windsor'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  " CAN-MB-Winnipeg Int'l"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Abbotsford_BC_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Bagotville_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Baie Comeau_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Battle Harbour_NF_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Brandon_MB_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Calgary Int'l_AB_CAN"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Charlottetown CDA_PE_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Churchill_MB_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Comox_BC_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Cranbrook_BC_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Edmonton Stony Plain_AB_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Estevan_SK_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Fort McMurray_AB_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Fort St John_BC_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Fredericton_NB_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Gander Int'l_NF_CAN"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Goose_NF_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Grand Prairie_AB_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Greenwood_NS_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Grindstone Island_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Inuvik Ua_NT_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Kamloops_BC_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Kingston_ON_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'Kuujjuarapik_PQ_CAN'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'PE'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'NT'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Calgary Int'l"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Gander Int'l"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  '5B'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Bagotville"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Baie Comeau"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Battle Harbour"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Brandon"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Charlottetown CDA"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Churchill"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Comox"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Cranbrook"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Edmonton Stony Plain"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Estevan"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Fort McMurray"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Fort St John"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Fredericton"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Goose"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Grand Prairie"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Greenwood"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Grindstone Island"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Inuvik Ua"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Kamloops"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Kingston"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Kuujjuarapik"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Kuujuaq"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "La Grande Riviere"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Lake Eon"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Lethbridge"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "London"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Medicine Hat"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Miramichi"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Mont Joli"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Montreal Jean Brebeuf"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Montreal Mirabel"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Mount Forest"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Muskoka"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Nitchequon"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "North Battleford"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "North Bay"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Port Hardy"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Prince George"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Prince Rupert"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Quebec City"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Regina"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Resolute"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Riviere Du Loup"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Roberval"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Sable Island"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Saint John"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Sandspit"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Saskatoon"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Sault Ste Marie"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Schefferville"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Sept-Iles"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Shearwater"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Sherbrooke"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Simcoe"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Smithers"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "St Hubert"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Ste Agathe Des Monts"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Stephenville"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Summerland"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Swift Current"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Sydney"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "The Pas"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Thunder Bay"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Timmins"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Trenton"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Truro"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Whitehorse"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Windsor"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Abbotsford"</t>
-  </si>
-  <si>
     <t>swh_fueltype</t>
   </si>
   <si>
     <t>hdd15</t>
   </si>
   <si>
-    <t>CAN_PQ_Bagotville.717270_CWEC.epw'</t>
+    <t>CAN_BC_Abbotsford.711080_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Bagotville.717270_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Baie.Comeau.711870_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_NF_Battle.Harbour.718170_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_MB_Brandon.711400_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_AB_Calgary.718770_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PE_Charlottetown.717060_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_MB_Churchill.719130_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_BC_Comox.718930_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_BC_Cranbrook.718800_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_AB_Edmonton.711230_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_SK_Estevan.718620_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_AB_Fort.McMurray.719320_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_BC_Fort.St.John.719430_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_NB_Fredericton.717000_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_NF_Gander.718030_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_NF_Goose.718160_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_AB_Grande.Prairie.719400_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_NS_Greenwood.713970_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Grindstone.Island_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_NT_Inuvik.719570_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_BC_Kamloops.718870_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_ON_Kingston.716200_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Kuujjuarapik.719050_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Kuujuaq.719060_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_La.Grande.Riviere.718270_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Lake.Eon.714210_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_AB_Lethbridge.712430_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_ON_London.716230_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_AB_Medicine.Hat.718720_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_NB_Miramichi.717440_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Mont.Joli.717180_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Montreal.Intl.AP.716270_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Montreal.Jean.Brebeuf.716278_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Montreal.Mirabel.716278_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_ON_Mount.Forest.716310_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_ON_Muskoka.716300_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Nitchequon.CAN270_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_SK_North.Battleford.718760_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_ON_North.Bay.717310_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_ON_Ottawa.716280_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_BC_Port.Hardy.711090_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_BC_Prince.George.718960_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_BC_Prince.Rupert.718980_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Quebec.717140_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_SK_Regina.718630_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_NU_Resolute.719240_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Riviere.du.Loup.717150_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Roberval.717280_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_NS_Sable.Island.716000_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_NB_Saint.John.716090_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_BC_Sandspit.711010_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_SK_Saskatoon.718660_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_ON_Sault.Ste.Marie.712600_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Schefferville.718280_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Sept-Iles.718110_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_NS_Shearwater.716010_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Sherbrooke.716100_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_ON_Simcoe.715270_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_BC_Smithers.719500_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_St.Hubert.713710_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_NF_St.Johns.718010_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Ste.Agathe.des.Monts.717200_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_NF_Stephenville.718150_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_BC_Summerland.717680_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_SK_Swift.Current.718700_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_NS_Sydney.717070_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_MB_The.Pas.718670_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_ON_Thunder.Bay.717490_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_ON_Timmins.717390_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_ON_Toronto.716240_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_ON_Trenton.716210_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_NS_Truro.713980_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_PQ_Val.d.Or.717250_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_BC_Vancouver.718920_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_BC_Victoria.717990_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_YT_Whitehorse.719640_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_ON_Windsor.715380_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN_MB_Winnipeg.718520_CWEC.epw</t>
+  </si>
+  <si>
+    <t>CAN-BC-Abbotsford</t>
+  </si>
+  <si>
+    <t>Abbotsford_BC_CAN</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Abbotsford</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>NaturalGas</t>
+  </si>
+  <si>
+    <t>DX</t>
+  </si>
+  <si>
+    <t>Scroll</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Bagotville</t>
+  </si>
+  <si>
+    <t>Bagotville_PQ_CAN</t>
+  </si>
+  <si>
+    <t>PQ</t>
+  </si>
+  <si>
+    <t>Bagotville</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>CAN-MB-Brandon</t>
+  </si>
+  <si>
+    <t>Brandon_MB_CAN</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>CAN-MB-Churchill</t>
+  </si>
+  <si>
+    <t>Churchill_MB_CAN</t>
+  </si>
+  <si>
+    <t>Churchill</t>
+  </si>
+  <si>
+    <t>CAN-BC-Comox</t>
+  </si>
+  <si>
+    <t>Comox_BC_CAN</t>
+  </si>
+  <si>
+    <t>Comox</t>
+  </si>
+  <si>
+    <t>CAN-BC-Cranbrook</t>
+  </si>
+  <si>
+    <t>Cranbrook_BC_CAN</t>
+  </si>
+  <si>
+    <t>Cranbrook</t>
+  </si>
+  <si>
+    <t>CAN-SK-Estevan</t>
+  </si>
+  <si>
+    <t>Estevan_SK_CAN</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Estevan</t>
+  </si>
+  <si>
+    <t>CAN-NB-Fredericton</t>
+  </si>
+  <si>
+    <t>Fredericton_NB_CAN</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Fredericton</t>
+  </si>
+  <si>
+    <t>CAN-NF-Goose</t>
+  </si>
+  <si>
+    <t>Goose_NF_CAN</t>
+  </si>
+  <si>
+    <t>Goose</t>
+  </si>
+  <si>
+    <t>CAN-NS-Greenwood</t>
+  </si>
+  <si>
+    <t>Greenwood_NS_CAN</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Greenwood</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>FuelOil#2</t>
+  </si>
+  <si>
+    <t>CAN-BC-Kamloops</t>
+  </si>
+  <si>
+    <t>Kamloops_BC_CAN</t>
+  </si>
+  <si>
+    <t>Kamloops</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>CAN-ON-Kingston</t>
+  </si>
+  <si>
+    <t>Kingston_ON_CAN</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Kuujjuarapik</t>
+  </si>
+  <si>
+    <t>Kuujjuarapik_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Kuujjuarapik</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Kuujuaq</t>
+  </si>
+  <si>
+    <t>Kuujuaq_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Kuujuaq</t>
+  </si>
+  <si>
+    <t>CAN-AB-Lethbridge</t>
+  </si>
+  <si>
+    <t>Lethbridge_AB_CAN</t>
+  </si>
+  <si>
+    <t>Lethbridge</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>CAN-ON-London</t>
+  </si>
+  <si>
+    <t>London_ON_CAN</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>CAN-NB-Miramichi</t>
+  </si>
+  <si>
+    <t>Miramichi_NB_CAN</t>
+  </si>
+  <si>
+    <t>Miramichi</t>
+  </si>
+  <si>
+    <t>CAN-ON-Muskoka</t>
+  </si>
+  <si>
+    <t>Muskoka_ON_CAN</t>
+  </si>
+  <si>
+    <t>Muskoka</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Nitchequon</t>
+  </si>
+  <si>
+    <t>Nitchequon_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Nitchequon</t>
+  </si>
+  <si>
+    <t>CAN-SK-Regina</t>
+  </si>
+  <si>
+    <t>Regina_SK_CAN</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>CAN-NU-Resolute</t>
+  </si>
+  <si>
+    <t>Resolute_NU_CAN</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>Resolute</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Roberval</t>
+  </si>
+  <si>
+    <t>Roberval_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Roberval</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>CAN-BC-Sandspit</t>
+  </si>
+  <si>
+    <t>Sandspit_BC_CAN</t>
+  </si>
+  <si>
+    <t>Sandspit</t>
+  </si>
+  <si>
+    <t>CAN-SK-Saskatoon</t>
+  </si>
+  <si>
+    <t>Saskatoon_SK_CAN</t>
+  </si>
+  <si>
+    <t>Saskatoon</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Schefferville</t>
+  </si>
+  <si>
+    <t>Schefferville_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Schefferville</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Sept-Iles</t>
+  </si>
+  <si>
+    <t>Sept-Iles_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Sept-Iles</t>
+  </si>
+  <si>
+    <t>CAN-NS-Shearwater</t>
+  </si>
+  <si>
+    <t>Shearwater_NS_CAN</t>
+  </si>
+  <si>
+    <t>Shearwater</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Sherbrooke</t>
+  </si>
+  <si>
+    <t>Sherbrooke_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Sherbrooke</t>
+  </si>
+  <si>
+    <t>CAN-ON-Simcoe</t>
+  </si>
+  <si>
+    <t>Simcoe_ON_CAN</t>
+  </si>
+  <si>
+    <t>Simcoe</t>
+  </si>
+  <si>
+    <t>CAN-BC-Smithers</t>
+  </si>
+  <si>
+    <t>Smithers_BC_CAN</t>
+  </si>
+  <si>
+    <t>Smithers</t>
+  </si>
+  <si>
+    <t>CAN-NF-Stephenville</t>
+  </si>
+  <si>
+    <t>Stephenville_NF_CAN</t>
+  </si>
+  <si>
+    <t>Stephenville</t>
+  </si>
+  <si>
+    <t>CAN-BC-Summerland</t>
+  </si>
+  <si>
+    <t>Summerland_BC_CAN</t>
+  </si>
+  <si>
+    <t>Summerland</t>
+  </si>
+  <si>
+    <t>CAN-NS-Sydney</t>
+  </si>
+  <si>
+    <t>Sydney_NS_CAN</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>CAN-ON-Timmins</t>
+  </si>
+  <si>
+    <t>Timmins_ON_CAN</t>
+  </si>
+  <si>
+    <t>Timmins</t>
+  </si>
+  <si>
+    <t>CAN-ON-Trenton</t>
+  </si>
+  <si>
+    <t>Trenton_ON_CAN</t>
+  </si>
+  <si>
+    <t>Trenton</t>
+  </si>
+  <si>
+    <t>CAN-NS-Truro</t>
+  </si>
+  <si>
+    <t>Truro_NS_CAN</t>
+  </si>
+  <si>
+    <t>Truro</t>
+  </si>
+  <si>
+    <t>CAN-YT-Whitehorse</t>
+  </si>
+  <si>
+    <t>Whitehorse_YT_CAN</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Whitehorse</t>
+  </si>
+  <si>
+    <t>CAN-ON-Windsor</t>
+  </si>
+  <si>
+    <t>Windsor_ON_CAN</t>
+  </si>
+  <si>
+    <t>Windsor</t>
+  </si>
+  <si>
+    <t>Baie Comeau_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Battle Harbour_NF_CAN</t>
+  </si>
+  <si>
+    <t>Calgary Int'l_AB_CAN</t>
+  </si>
+  <si>
+    <t>Charlottetown CDA_PE_CAN</t>
+  </si>
+  <si>
+    <t>Hot Water</t>
+  </si>
+  <si>
+    <t>Edmonton Stony Plain_AB_CAN</t>
+  </si>
+  <si>
+    <t>Fort McMurray_AB_CAN</t>
+  </si>
+  <si>
+    <t>Fort St John_BC_CAN</t>
+  </si>
+  <si>
+    <t>Grand Prairie_AB_CAN</t>
+  </si>
+  <si>
+    <t>Grindstone Island_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Inuvik Ua_NT_CAN</t>
+  </si>
+  <si>
+    <t>La Grande Riviere_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Lake Eon_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Medicine Hat_AB_CAN</t>
+  </si>
+  <si>
+    <t>Mont Joli_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Montreal Jean Brebeuf_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Montreal Mirabel_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Mount Forest_ON_CAN</t>
+  </si>
+  <si>
+    <t>North Battleford_SK_CAN</t>
+  </si>
+  <si>
+    <t>North Bay_ON_CAN</t>
+  </si>
+  <si>
+    <t>Port Hardy_BC_CAN</t>
+  </si>
+  <si>
+    <t>Prince George_BC_CAN</t>
+  </si>
+  <si>
+    <t>Prince Rupert_BC_CAN</t>
+  </si>
+  <si>
+    <t>Quebec City_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Riviere Du Loup_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Sable Island_NS_CAN</t>
+  </si>
+  <si>
+    <t>Saint John_NB_CAN</t>
+  </si>
+  <si>
+    <t>Sault Ste Marie_ON_CAN</t>
+  </si>
+  <si>
+    <t>St Hubert_PQ_CAN</t>
+  </si>
+  <si>
+    <t>CAN-NF-St Johns</t>
+  </si>
+  <si>
+    <t>Ste Agathe Des Monts_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Swift Current_SK_CAN</t>
+  </si>
+  <si>
+    <t>The Pas_MB_CAN</t>
+  </si>
+  <si>
+    <t>Thunder Bay_ON_CAN</t>
+  </si>
+  <si>
+    <t>Gander Int'l_NF_CAN</t>
+  </si>
+  <si>
+    <t>CAN-AB-Calgary Int'l</t>
+  </si>
+  <si>
+    <t>CAN-NF-Gander Int'l</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Montreal Int'l</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Montreal Int'l_PQ_CAN</t>
+  </si>
+  <si>
+    <t>CAN-ON-Ottawa Int'l</t>
+  </si>
+  <si>
+    <t>CAN-ON-Toronto Int'l</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Val d'Or</t>
+  </si>
+  <si>
+    <t>CAN-BC-Vancouver Int'l</t>
+  </si>
+  <si>
+    <t>CAN-BC-Victoria Int'l</t>
+  </si>
+  <si>
+    <t>CAN-MB-Winnipeg Int'l</t>
+  </si>
+  <si>
+    <t>CAN-BC-Fort St John</t>
+  </si>
+  <si>
+    <t>CAN-AB-Fort McMurray</t>
+  </si>
+  <si>
+    <t>CAN-AB-Edmonton Stony Plain</t>
+  </si>
+  <si>
+    <t>CAN-PE-Charlottetown CDA</t>
+  </si>
+  <si>
+    <t>CAN-NF-Battle Harbour</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Baie Comeau</t>
+  </si>
+  <si>
+    <t>CAN-AB-Grand Prairie</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Grindstone Island</t>
+  </si>
+  <si>
+    <t>CAN-NT-Inuvik Ua</t>
+  </si>
+  <si>
+    <t>CAN-PQ-La Grande Riviere</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Lake Eon</t>
+  </si>
+  <si>
+    <t>CAN-AB-Medicine Hat</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Mont Joli</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Montreal Jean Brebeuf</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Montreal Mirabel</t>
+  </si>
+  <si>
+    <t>CAN-ON-Mount Forest</t>
+  </si>
+  <si>
+    <t>CAN-SK-North Battleford</t>
+  </si>
+  <si>
+    <t>CAN-ON-North Bay</t>
+  </si>
+  <si>
+    <t>CAN-BC-Port Hardy</t>
+  </si>
+  <si>
+    <t>CAN-BC-Prince George</t>
+  </si>
+  <si>
+    <t>CAN-BC-Prince Rupert</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Quebec City</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Riviere Du Loup</t>
+  </si>
+  <si>
+    <t>CAN-NS-Sable Island</t>
+  </si>
+  <si>
+    <t>CAN-NB-Saint John</t>
+  </si>
+  <si>
+    <t>CAN-ON-Sault Ste Marie</t>
+  </si>
+  <si>
+    <t>CAN-PQ-St Hubert</t>
+  </si>
+  <si>
+    <t>CAN-PQ-Ste Agathe Des Monts</t>
+  </si>
+  <si>
+    <t>CAN-SK-Swift Current</t>
+  </si>
+  <si>
+    <t>CAN-MB-The Pas</t>
+  </si>
+  <si>
+    <t>CAN-ON-Thunder Bay</t>
+  </si>
+  <si>
+    <t>Winnipeg Int'l_MB_CAN</t>
+  </si>
+  <si>
+    <t>Victoria Int'l_BC_CAN</t>
+  </si>
+  <si>
+    <t>Vancouver Int'l_BC_CAN</t>
+  </si>
+  <si>
+    <t>Val d'Or_PQ_CAN</t>
+  </si>
+  <si>
+    <t>Toronto Int'l_ON_CAN</t>
+  </si>
+  <si>
+    <t>St Johns_NF_CAN</t>
+  </si>
+  <si>
+    <t>Ottawa Int'l_ON_CAN</t>
+  </si>
+  <si>
+    <t>Fort St John</t>
+  </si>
+  <si>
+    <t>Fort McMurray</t>
+  </si>
+  <si>
+    <t>Winnipeg Int'l</t>
+  </si>
+  <si>
+    <t>Victoria Int'l</t>
+  </si>
+  <si>
+    <t>Vancouver Int'l</t>
+  </si>
+  <si>
+    <t>Val d'Or</t>
+  </si>
+  <si>
+    <t>Toronto Int'l</t>
+  </si>
+  <si>
+    <t>Thunder Bay</t>
+  </si>
+  <si>
+    <t>The Pas</t>
+  </si>
+  <si>
+    <t>Swift Current</t>
+  </si>
+  <si>
+    <t>Ste Agathe Des Monts</t>
+  </si>
+  <si>
+    <t>St Johns</t>
+  </si>
+  <si>
+    <t>St Hubert</t>
+  </si>
+  <si>
+    <t>Sault Ste Marie</t>
+  </si>
+  <si>
+    <t>Saint John</t>
+  </si>
+  <si>
+    <t>Sable Island</t>
+  </si>
+  <si>
+    <t>Riviere Du Loup</t>
+  </si>
+  <si>
+    <t>Quebec City</t>
+  </si>
+  <si>
+    <t>Prince Rupert</t>
+  </si>
+  <si>
+    <t>Prince George</t>
+  </si>
+  <si>
+    <t>Port Hardy</t>
+  </si>
+  <si>
+    <t>North Bay</t>
+  </si>
+  <si>
+    <t>Ottawa Int'l</t>
+  </si>
+  <si>
+    <t>North Battleford</t>
+  </si>
+  <si>
+    <t>Mount Forest</t>
+  </si>
+  <si>
+    <t>Montreal Mirabel</t>
+  </si>
+  <si>
+    <t>Montreal Jean Brebeuf</t>
+  </si>
+  <si>
+    <t>Montreal Int'l</t>
+  </si>
+  <si>
+    <t>Mont Joli</t>
+  </si>
+  <si>
+    <t>Medicine Hat</t>
+  </si>
+  <si>
+    <t>Lake Eon</t>
+  </si>
+  <si>
+    <t>La Grande Riviere</t>
+  </si>
+  <si>
+    <t>Inuvik Ua</t>
+  </si>
+  <si>
+    <t>Grindstone Island</t>
+  </si>
+  <si>
+    <t>Grand Prairie</t>
+  </si>
+  <si>
+    <t>Gander Int'l</t>
+  </si>
+  <si>
+    <t>Edmonton Stony Plain</t>
+  </si>
+  <si>
+    <t>Charlottetown CDA</t>
+  </si>
+  <si>
+    <t>Calgary Int'l</t>
+  </si>
+  <si>
+    <t>Battle Harbour</t>
+  </si>
+  <si>
+    <t>Baie Comeau</t>
+  </si>
+  <si>
+    <t>var_speed_drive</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1196,9 +1193,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1506,10 +1506,10 @@
   <dimension ref="A1:Y82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,95 +1550,95 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>368</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>367</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" t="s">
-        <v>269</v>
+        <v>104</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G2" s="5">
+        <v>108</v>
+      </c>
+      <c r="G2" s="4">
         <v>2860</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>2000</v>
       </c>
       <c r="I2">
@@ -1650,72 +1650,72 @@
       <c r="K2">
         <v>-122.37</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>70</v>
       </c>
       <c r="M2">
         <v>14.3</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W2" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X2" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>369</v>
+      <c r="A3" t="s">
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G3" s="5">
+        <v>117</v>
+      </c>
+      <c r="G3" s="4">
         <v>5700</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>4760</v>
       </c>
       <c r="I3">
@@ -1727,7 +1727,7 @@
       <c r="K3">
         <v>-71</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>5</v>
       </c>
       <c r="M3">
@@ -1737,62 +1737,62 @@
         <v>7</v>
       </c>
       <c r="O3" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U3" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V3" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W3" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X3" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y3" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G4" s="5">
+        <v>367</v>
+      </c>
+      <c r="G4" s="4">
         <v>6020</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>5070</v>
       </c>
       <c r="I4">
@@ -1804,7 +1804,7 @@
       <c r="K4">
         <v>-68.2</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>60</v>
       </c>
       <c r="M4">
@@ -1814,57 +1814,57 @@
         <v>7</v>
       </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X4" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y4" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" t="s">
-        <v>272</v>
+        <v>293</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="G5">
         <v>6462</v>
@@ -1888,62 +1888,62 @@
         <v>7</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U5" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V5" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W5" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X5" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y5" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G6" s="5">
+        <v>124</v>
+      </c>
+      <c r="G6" s="4">
         <v>5760</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>4850</v>
       </c>
       <c r="I6">
@@ -1955,7 +1955,7 @@
       <c r="K6">
         <v>-99.95</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>395</v>
       </c>
       <c r="M6">
@@ -1965,57 +1965,57 @@
         <v>7</v>
       </c>
       <c r="O6" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U6" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V6" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W6" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X6" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" t="s">
-        <v>274</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>295</v>
+        <v>125</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="G7">
         <v>5146</v>
@@ -2039,62 +2039,62 @@
         <v>7</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X7" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G8" s="5">
+        <v>364</v>
+      </c>
+      <c r="G8" s="4">
         <v>4460</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>3650</v>
       </c>
       <c r="I8">
@@ -2106,72 +2106,72 @@
       <c r="K8">
         <v>-63.13</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>5</v>
       </c>
       <c r="M8">
         <v>25.6</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U8" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V8" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>303</v>
-      </c>
-      <c r="G9" s="5">
+        <v>130</v>
+      </c>
+      <c r="G9" s="4">
         <v>8950</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>7890</v>
       </c>
       <c r="I9">
@@ -2183,7 +2183,7 @@
       <c r="K9">
         <v>-94.07</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>10</v>
       </c>
       <c r="M9">
@@ -2193,62 +2193,62 @@
         <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U9" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V9" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W9" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y9" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>304</v>
-      </c>
-      <c r="G10" s="5">
+        <v>133</v>
+      </c>
+      <c r="G10" s="4">
         <v>3100</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>2220</v>
       </c>
       <c r="I10">
@@ -2260,72 +2260,72 @@
       <c r="K10">
         <v>-124.9</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>15</v>
       </c>
       <c r="M10">
         <v>15.2</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W10" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X10" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y10" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>305</v>
-      </c>
-      <c r="G11" s="5">
+        <v>136</v>
+      </c>
+      <c r="G11" s="4">
         <v>4400</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>3450</v>
       </c>
       <c r="I11">
@@ -2337,72 +2337,72 @@
       <c r="K11">
         <v>-115.78</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>910</v>
       </c>
       <c r="M11">
         <v>26.6</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W11" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X11" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y11" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>306</v>
-      </c>
-      <c r="G12" s="5">
+        <v>363</v>
+      </c>
+      <c r="G12" s="4">
         <v>5120</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>4160</v>
       </c>
       <c r="I12">
@@ -2414,7 +2414,7 @@
       <c r="K12">
         <v>-114.1</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>645</v>
       </c>
       <c r="M12">
@@ -2424,62 +2424,62 @@
         <v>7</v>
       </c>
       <c r="O12" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S12" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T12" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W12" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X12" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y12" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>307</v>
-      </c>
-      <c r="G13" s="5">
+        <v>140</v>
+      </c>
+      <c r="G13" s="4">
         <v>5340</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>4450</v>
       </c>
       <c r="I13">
@@ -2491,7 +2491,7 @@
       <c r="K13">
         <v>-102.97</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>565</v>
       </c>
       <c r="M13">
@@ -2501,62 +2501,62 @@
         <v>7</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S13" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T13" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U13" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V13" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W13" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X13" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y13" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>308</v>
-      </c>
-      <c r="G14" s="5">
+        <v>328</v>
+      </c>
+      <c r="G14" s="4">
         <v>6250</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>5230</v>
       </c>
       <c r="I14">
@@ -2568,7 +2568,7 @@
       <c r="K14">
         <v>-111.22</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>255</v>
       </c>
       <c r="M14">
@@ -2578,62 +2578,62 @@
         <v>7</v>
       </c>
       <c r="O14" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S14" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T14" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U14" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V14" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W14" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X14" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y14" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="C15" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>309</v>
-      </c>
-      <c r="G15" s="5">
+        <v>327</v>
+      </c>
+      <c r="G15" s="4">
         <v>5750</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>4710</v>
       </c>
       <c r="I15">
@@ -2645,7 +2645,7 @@
       <c r="K15">
         <v>-120.73</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>685</v>
       </c>
       <c r="M15">
@@ -2655,62 +2655,62 @@
         <v>7</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P15" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S15" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U15" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V15" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W15" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X15" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y15" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="F16" t="s">
-        <v>310</v>
-      </c>
-      <c r="G16" s="5">
+        <v>144</v>
+      </c>
+      <c r="G16" s="4">
         <v>4670</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>3760</v>
       </c>
       <c r="I16">
@@ -2722,72 +2722,72 @@
       <c r="K16">
         <v>-66.53</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>15</v>
       </c>
       <c r="M16">
         <v>29.5</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P16" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S16" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W16" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X16" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y16" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" t="s">
-        <v>284</v>
+        <v>40</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" t="s">
-        <v>296</v>
-      </c>
-      <c r="G17" s="5">
+        <v>120</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G17" s="4">
         <v>5110</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>4110</v>
       </c>
       <c r="I17">
@@ -2799,7 +2799,7 @@
       <c r="K17">
         <v>-54.57</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>125</v>
       </c>
       <c r="M17">
@@ -2809,62 +2809,62 @@
         <v>7</v>
       </c>
       <c r="O17" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S17" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U17" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V17" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W17" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X17" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y17" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>285</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>311</v>
-      </c>
-      <c r="G18" s="5">
+        <v>147</v>
+      </c>
+      <c r="G18" s="4">
         <v>6670</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>5700</v>
       </c>
       <c r="I18">
@@ -2876,7 +2876,7 @@
       <c r="K18">
         <v>-60.37</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>15</v>
       </c>
       <c r="M18">
@@ -2886,62 +2886,62 @@
         <v>7</v>
       </c>
       <c r="O18" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P18" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S18" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T18" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U18" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V18" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W18" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X18" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y18" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="C19" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>312</v>
-      </c>
-      <c r="G19" s="5">
+        <v>361</v>
+      </c>
+      <c r="G19" s="4">
         <v>5790</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>4800</v>
       </c>
       <c r="I19">
@@ -2953,7 +2953,7 @@
       <c r="K19">
         <v>-118.88</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>650</v>
       </c>
       <c r="M19">
@@ -2963,62 +2963,62 @@
         <v>7</v>
       </c>
       <c r="O19" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P19" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S19" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U19" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V19" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W19" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X19" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y19" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>287</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" s="5">
+        <v>151</v>
+      </c>
+      <c r="G20" s="4">
         <v>4140</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>3250</v>
       </c>
       <c r="I20">
@@ -3030,67 +3030,67 @@
       <c r="K20">
         <v>-64.92</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>28</v>
       </c>
       <c r="M20">
         <v>23.8</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O20" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P20" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S20" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U20" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V20" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W20" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X20" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y20" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="G21">
         <v>4941</v>
@@ -3111,65 +3111,65 @@
         <v>23.8</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O21" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P21" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S21" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T21" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U21" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V21" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W21" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X21" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y21" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="C22" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>294</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>315</v>
-      </c>
-      <c r="G22" s="5">
+        <v>359</v>
+      </c>
+      <c r="G22" s="4">
         <v>9600</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>8540</v>
       </c>
       <c r="I22">
@@ -3181,7 +3181,7 @@
       <c r="K22">
         <v>-133.47999999999999</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>45</v>
       </c>
       <c r="M22">
@@ -3191,62 +3191,62 @@
         <v>8</v>
       </c>
       <c r="O22" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="P22" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S22" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T22" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U22" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V22" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W22" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y22" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F23" t="s">
-        <v>316</v>
-      </c>
-      <c r="G23" s="5">
+        <v>156</v>
+      </c>
+      <c r="G23" s="4">
         <v>3450</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>2670</v>
       </c>
       <c r="I23">
@@ -3258,72 +3258,72 @@
       <c r="K23">
         <v>-120.45</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <v>355</v>
       </c>
       <c r="M23">
         <v>25.6</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>297</v>
+        <v>157</v>
       </c>
       <c r="O23" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P23" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S23" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T23" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U23" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V23" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W23" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X23" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y23" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
-      </c>
-      <c r="G24" s="5">
+        <v>161</v>
+      </c>
+      <c r="G24" s="4">
         <v>4000</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>3200</v>
       </c>
       <c r="I24">
@@ -3335,72 +3335,72 @@
       <c r="K24">
         <v>-76.599999999999994</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <v>80</v>
       </c>
       <c r="M24">
         <v>27.7</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O24" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P24" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S24" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T24" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U24" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V24" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W24" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X24" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y24" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>292</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
-      </c>
-      <c r="G25" s="5">
+        <v>164</v>
+      </c>
+      <c r="G25" s="4">
         <v>7990</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>6980</v>
       </c>
       <c r="I25">
@@ -3412,7 +3412,7 @@
       <c r="K25">
         <v>-77.77</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <v>20</v>
       </c>
       <c r="M25">
@@ -3422,62 +3422,62 @@
         <v>8</v>
       </c>
       <c r="O25" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P25" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S25" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T25" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U25" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V25" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W25" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X25" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y25" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>319</v>
-      </c>
-      <c r="G26" s="5">
+        <v>167</v>
+      </c>
+      <c r="G26" s="4">
         <v>8550</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>7520</v>
       </c>
       <c r="I26">
@@ -3489,7 +3489,7 @@
       <c r="K26">
         <v>-68.42</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <v>25</v>
       </c>
       <c r="M26">
@@ -3499,57 +3499,57 @@
         <v>8</v>
       </c>
       <c r="O26" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P26" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
       </c>
       <c r="R26" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S26" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U26" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V26" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W26" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X26" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y26" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="G27">
         <v>7616</v>
@@ -3573,57 +3573,57 @@
         <v>8</v>
       </c>
       <c r="O27" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P27" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S27" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T27" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U27" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V27" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W27" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X27" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y27" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>256</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="G28">
         <v>7383</v>
@@ -3647,62 +3647,62 @@
         <v>8</v>
       </c>
       <c r="O28" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P28" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>1</v>
       </c>
       <c r="R28" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S28" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T28" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U28" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V28" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W28" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X28" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y28" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>322</v>
-      </c>
-      <c r="G29" s="5">
+        <v>170</v>
+      </c>
+      <c r="G29" s="4">
         <v>4500</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>3580</v>
       </c>
       <c r="I29">
@@ -3714,72 +3714,72 @@
       <c r="K29">
         <v>-112.8</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <v>910</v>
       </c>
       <c r="M29">
         <v>26.5</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="O29" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>1</v>
       </c>
       <c r="R29" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S29" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T29" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U29" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V29" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W29" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X29" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y29" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>323</v>
-      </c>
-      <c r="G30" s="5">
+        <v>174</v>
+      </c>
+      <c r="G30" s="4">
         <v>3900</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <v>3110</v>
       </c>
       <c r="I30">
@@ -3791,72 +3791,72 @@
       <c r="K30">
         <v>-81.150000000000006</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <v>245</v>
       </c>
       <c r="M30">
         <v>27.9</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O30" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>1</v>
       </c>
       <c r="R30" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S30" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U30" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V30" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W30" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X30" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y30" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>324</v>
-      </c>
-      <c r="G31" s="5">
+        <v>356</v>
+      </c>
+      <c r="G31" s="4">
         <v>4540</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>3610</v>
       </c>
       <c r="I31">
@@ -3868,72 +3868,72 @@
       <c r="K31">
         <v>-110.72</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <v>705</v>
       </c>
       <c r="M31">
         <v>31.6</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="O31" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S31" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T31" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U31" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V31" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W31" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X31" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y31" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="F32" t="s">
-        <v>325</v>
-      </c>
-      <c r="G32" s="5">
+        <v>177</v>
+      </c>
+      <c r="G32" s="4">
         <v>4950</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>4030</v>
       </c>
       <c r="I32">
@@ -3945,72 +3945,72 @@
       <c r="K32">
         <v>-65.45</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <v>5</v>
       </c>
       <c r="M32">
         <v>29.6</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O32" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>1</v>
       </c>
       <c r="R32" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S32" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T32" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U32" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V32" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W32" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X32" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y32" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>258</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>326</v>
-      </c>
-      <c r="G33" s="5">
+        <v>355</v>
+      </c>
+      <c r="G33" s="4">
         <v>5370</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>4440</v>
       </c>
       <c r="I33">
@@ -4022,7 +4022,7 @@
       <c r="K33">
         <v>-68.22</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <v>90</v>
       </c>
       <c r="M33">
@@ -4032,57 +4032,57 @@
         <v>7</v>
       </c>
       <c r="O33" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>1</v>
       </c>
       <c r="R33" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S33" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T33" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U33" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V33" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W33" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X33" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y33" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
+        <v>57</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>73</v>
+        <v>116</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="G34">
         <v>4493</v>
@@ -4103,60 +4103,60 @@
         <v>30.2</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O34" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P34" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>1</v>
       </c>
       <c r="R34" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S34" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T34" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U34" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V34" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W34" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X34" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y34" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F35" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="G35">
         <v>4616</v>
@@ -4177,60 +4177,60 @@
         <v>31.2</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O35" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>1</v>
       </c>
       <c r="R35" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S35" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T35" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U35" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V35" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W35" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X35" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y35" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="G36">
         <v>4861</v>
@@ -4251,65 +4251,65 @@
         <v>33.4</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O36" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P36" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>1</v>
       </c>
       <c r="R36" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S36" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T36" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U36" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V36" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W36" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X36" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y36" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F37" t="s">
-        <v>329</v>
-      </c>
-      <c r="G37" s="5">
+        <v>351</v>
+      </c>
+      <c r="G37" s="4">
         <v>4700</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <v>3830</v>
       </c>
       <c r="I37">
@@ -4321,72 +4321,72 @@
       <c r="K37">
         <v>-80.75</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="4">
         <v>420</v>
       </c>
       <c r="M37">
         <v>27.7</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O37" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>1</v>
       </c>
       <c r="R37" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S37" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T37" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U37" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V37" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W37" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X37" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y37" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
-      </c>
-      <c r="G38" s="5">
+        <v>180</v>
+      </c>
+      <c r="G38" s="4">
         <v>4760</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <v>3890</v>
       </c>
       <c r="I38">
@@ -4398,72 +4398,72 @@
       <c r="K38">
         <v>-79.3</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="4">
         <v>255</v>
       </c>
       <c r="M38">
         <v>29.3</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O38" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>1</v>
       </c>
       <c r="R38" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S38" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T38" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U38" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V38" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W38" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X38" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y38" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F39" t="s">
-        <v>331</v>
-      </c>
-      <c r="G39" s="5">
+        <v>183</v>
+      </c>
+      <c r="G39" s="4">
         <v>8100</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="4">
         <v>7080</v>
       </c>
       <c r="I39">
@@ -4475,7 +4475,7 @@
       <c r="K39">
         <v>-70.900000000000006</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="4">
         <v>545</v>
       </c>
       <c r="M39">
@@ -4485,62 +4485,62 @@
         <v>8</v>
       </c>
       <c r="O39" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S39" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T39" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U39" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V39" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W39" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X39" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y39" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="F40" t="s">
-        <v>332</v>
-      </c>
-      <c r="G40" s="5">
+        <v>350</v>
+      </c>
+      <c r="G40" s="4">
         <v>5900</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="4">
         <v>4990</v>
       </c>
       <c r="I40">
@@ -4552,7 +4552,7 @@
       <c r="K40">
         <v>-108.25</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="4">
         <v>545</v>
       </c>
       <c r="M40">
@@ -4562,62 +4562,62 @@
         <v>7</v>
       </c>
       <c r="O40" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>1</v>
       </c>
       <c r="R40" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S40" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T40" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U40" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V40" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W40" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X40" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y40" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F41" t="s">
-        <v>333</v>
-      </c>
-      <c r="G41" s="5">
+        <v>348</v>
+      </c>
+      <c r="G41" s="4">
         <v>5150</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="4">
         <v>4230</v>
       </c>
       <c r="I41">
@@ -4629,7 +4629,7 @@
       <c r="K41">
         <v>-79.430000000000007</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="4">
         <v>210</v>
       </c>
       <c r="M41">
@@ -4639,62 +4639,62 @@
         <v>7</v>
       </c>
       <c r="O41" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S41" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T41" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U41" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V41" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W41" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X41" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y41" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" t="s">
-        <v>230</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
+        <v>65</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="5">
+        <v>160</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G42" s="4">
         <v>4500</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="4">
         <v>3650</v>
       </c>
       <c r="I42">
@@ -4706,72 +4706,72 @@
       <c r="K42">
         <v>-75.67</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="4">
         <v>125</v>
       </c>
       <c r="M42">
         <v>31.8</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O42" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>1</v>
       </c>
       <c r="R42" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S42" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T42" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U42" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V42" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W42" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X42" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y42" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F43" t="s">
-        <v>334</v>
-      </c>
-      <c r="G43" s="5">
+        <v>347</v>
+      </c>
+      <c r="G43" s="4">
         <v>3440</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="4">
         <v>2370</v>
       </c>
       <c r="I43">
@@ -4783,72 +4783,72 @@
       <c r="K43">
         <v>-127.37</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="4">
         <v>5</v>
       </c>
       <c r="M43">
         <v>10.8</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="O43" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>1</v>
       </c>
       <c r="R43" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S43" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T43" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U43" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V43" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W43" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X43" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y43" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F44" t="s">
-        <v>335</v>
-      </c>
-      <c r="G44" s="5">
+        <v>346</v>
+      </c>
+      <c r="G44" s="4">
         <v>4720</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="4">
         <v>3750</v>
       </c>
       <c r="I44">
@@ -4860,7 +4860,7 @@
       <c r="K44">
         <v>-122.68</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="4">
         <v>580</v>
       </c>
       <c r="M44">
@@ -4870,62 +4870,62 @@
         <v>7</v>
       </c>
       <c r="O44" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P44" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>1</v>
       </c>
       <c r="R44" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S44" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T44" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U44" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V44" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W44" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X44" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y44" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F45" t="s">
-        <v>336</v>
-      </c>
-      <c r="G45" s="5">
+        <v>345</v>
+      </c>
+      <c r="G45" s="4">
         <v>3900</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="4">
         <v>2770</v>
       </c>
       <c r="I45">
@@ -4937,72 +4937,72 @@
       <c r="K45">
         <v>-130.43</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="4">
         <v>20</v>
       </c>
       <c r="M45">
         <v>13.5</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O45" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>1</v>
       </c>
       <c r="R45" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S45" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T45" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U45" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V45" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W45" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X45" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y45" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F46" t="s">
-        <v>337</v>
-      </c>
-      <c r="G46" s="5">
+        <v>344</v>
+      </c>
+      <c r="G46" s="4">
         <v>5080</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="4">
         <v>4160</v>
       </c>
       <c r="I46">
@@ -5014,72 +5014,72 @@
       <c r="K46">
         <v>-71.38</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="4">
         <v>120</v>
       </c>
       <c r="M46">
         <v>31</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O46" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>1</v>
       </c>
       <c r="R46" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S46" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T46" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U46" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V46" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W46" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X46" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y46" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="F47" t="s">
-        <v>338</v>
-      </c>
-      <c r="G47" s="5">
+        <v>186</v>
+      </c>
+      <c r="G47" s="4">
         <v>5600</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="4">
         <v>4700</v>
       </c>
       <c r="I47">
@@ -5091,7 +5091,7 @@
       <c r="K47">
         <v>-104.67</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="4">
         <v>575</v>
       </c>
       <c r="M47">
@@ -5101,62 +5101,62 @@
         <v>7</v>
       </c>
       <c r="O47" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P47" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>1</v>
       </c>
       <c r="R47" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S47" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T47" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U47" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V47" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W47" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X47" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y47" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="F48" t="s">
-        <v>339</v>
-      </c>
-      <c r="G48" s="5">
+        <v>190</v>
+      </c>
+      <c r="G48" s="4">
         <v>12360</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="4">
         <v>11210</v>
       </c>
       <c r="I48">
@@ -5168,7 +5168,7 @@
       <c r="K48">
         <v>-94.98</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="4">
         <v>25</v>
       </c>
       <c r="M48">
@@ -5178,62 +5178,62 @@
         <v>8</v>
       </c>
       <c r="O48" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="P48" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>1</v>
       </c>
       <c r="R48" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S48" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T48" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U48" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V48" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W48" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X48" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y48" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F49" t="s">
-        <v>340</v>
-      </c>
-      <c r="G49" s="5">
+        <v>343</v>
+      </c>
+      <c r="G49" s="4">
         <v>5380</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="4">
         <v>4450</v>
       </c>
       <c r="I49">
@@ -5245,7 +5245,7 @@
       <c r="K49">
         <v>-69.55</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="4">
         <v>55</v>
       </c>
       <c r="M49">
@@ -5255,62 +5255,62 @@
         <v>7</v>
       </c>
       <c r="O49" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>1</v>
       </c>
       <c r="R49" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S49" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T49" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U49" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V49" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W49" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X49" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y49" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F50" t="s">
-        <v>341</v>
-      </c>
-      <c r="G50" s="5">
+        <v>193</v>
+      </c>
+      <c r="G50" s="4">
         <v>5750</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="4">
         <v>4810</v>
       </c>
       <c r="I50">
@@ -5322,7 +5322,7 @@
       <c r="K50">
         <v>-72.27</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="4">
         <v>100</v>
       </c>
       <c r="M50">
@@ -5332,54 +5332,54 @@
         <v>7</v>
       </c>
       <c r="O50" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>1</v>
       </c>
       <c r="R50" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S50" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T50" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U50" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V50" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W50" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X50" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y50" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>269</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="F51" t="s">
         <v>342</v>
@@ -5403,65 +5403,65 @@
         <v>18.3</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="O51" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P51" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>1</v>
       </c>
       <c r="R51" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S51" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T51" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U51" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V51" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W51" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X51" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y51" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="F52" t="s">
-        <v>343</v>
-      </c>
-      <c r="G52" s="5">
+        <v>341</v>
+      </c>
+      <c r="G52" s="4">
         <v>4570</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="4">
         <v>3670</v>
       </c>
       <c r="I52">
@@ -5473,72 +5473,72 @@
       <c r="K52">
         <v>-65.88</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="4">
         <v>5</v>
       </c>
       <c r="M52">
         <v>23.8</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O52" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>1</v>
       </c>
       <c r="R52" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S52" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T52" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U52" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V52" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W52" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X52" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y52" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
-        <v>344</v>
-      </c>
-      <c r="G53" s="5">
+        <v>197</v>
+      </c>
+      <c r="G53" s="4">
         <v>3450</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="4">
         <v>2380</v>
       </c>
       <c r="I53">
@@ -5550,72 +5550,72 @@
       <c r="K53">
         <v>-131.82</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="4">
         <v>5</v>
       </c>
       <c r="M53">
         <v>13.1</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="O53" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P53" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>1</v>
       </c>
       <c r="R53" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S53" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T53" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U53" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V53" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W53" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X53" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y53" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="F54" t="s">
-        <v>345</v>
-      </c>
-      <c r="G54" s="5">
+        <v>200</v>
+      </c>
+      <c r="G54" s="4">
         <v>5700</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="4">
         <v>4800</v>
       </c>
       <c r="I54">
@@ -5627,7 +5627,7 @@
       <c r="K54">
         <v>-106.68</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="4">
         <v>500</v>
       </c>
       <c r="M54">
@@ -5637,62 +5637,62 @@
         <v>7</v>
       </c>
       <c r="O54" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P54" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>1</v>
       </c>
       <c r="R54" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S54" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T54" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U54" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V54" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W54" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X54" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y54" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F55" t="s">
-        <v>346</v>
-      </c>
-      <c r="G55" s="5">
+        <v>340</v>
+      </c>
+      <c r="G55" s="4">
         <v>4960</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="4">
         <v>4040</v>
       </c>
       <c r="I55">
@@ -5704,72 +5704,72 @@
       <c r="K55">
         <v>-84.52</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55" s="4">
         <v>190</v>
       </c>
       <c r="M55">
         <v>28.3</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O55" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P55" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>1</v>
       </c>
       <c r="R55" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S55" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T55" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U55" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V55" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W55" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X55" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y55" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F56" t="s">
-        <v>347</v>
-      </c>
-      <c r="G56" s="5">
+        <v>203</v>
+      </c>
+      <c r="G56" s="4">
         <v>8550</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="4">
         <v>7520</v>
       </c>
       <c r="I56">
@@ -5781,7 +5781,7 @@
       <c r="K56">
         <v>-66.819999999999993</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="4">
         <v>550</v>
       </c>
       <c r="M56">
@@ -5791,62 +5791,62 @@
         <v>8</v>
       </c>
       <c r="O56" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>1</v>
       </c>
       <c r="R56" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S56" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T56" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U56" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V56" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W56" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X56" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y56" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F57" t="s">
-        <v>348</v>
-      </c>
-      <c r="G57" s="5">
+        <v>206</v>
+      </c>
+      <c r="G57" s="4">
         <v>6200</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="4">
         <v>5240</v>
       </c>
       <c r="I57">
@@ -5858,7 +5858,7 @@
       <c r="K57">
         <v>-66.27</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="4">
         <v>5</v>
       </c>
       <c r="M57">
@@ -5868,57 +5868,57 @@
         <v>7</v>
       </c>
       <c r="O57" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>1</v>
       </c>
       <c r="R57" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S57" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T57" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U57" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V57" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W57" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X57" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y57" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="F58" t="s">
-        <v>349</v>
+        <v>209</v>
       </c>
       <c r="G58">
         <v>4197</v>
@@ -5939,65 +5939,65 @@
         <v>22</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O58" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P58" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q58" t="b">
+        <v>1</v>
       </c>
       <c r="R58" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S58" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T58" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U58" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V58" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W58" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X58" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y58" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F59" t="s">
-        <v>350</v>
-      </c>
-      <c r="G59" s="5">
+        <v>212</v>
+      </c>
+      <c r="G59" s="4">
         <v>4700</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="4">
         <v>3790</v>
       </c>
       <c r="I59">
@@ -6009,7 +6009,7 @@
       <c r="K59">
         <v>-71.680000000000007</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="4">
         <v>185</v>
       </c>
       <c r="M59">
@@ -6019,62 +6019,62 @@
         <v>7</v>
       </c>
       <c r="O59" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q59" t="b">
+        <v>1</v>
       </c>
       <c r="R59" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S59" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T59" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U59" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V59" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W59" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X59" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y59" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F60" t="s">
-        <v>351</v>
-      </c>
-      <c r="G60" s="5">
+        <v>215</v>
+      </c>
+      <c r="G60" s="4">
         <v>3700</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="4">
         <v>2920</v>
       </c>
       <c r="I60">
@@ -6086,72 +6086,72 @@
       <c r="K60">
         <v>-80.27</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="4">
         <v>210</v>
       </c>
       <c r="M60">
         <v>26.4</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O60" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P60" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>1</v>
       </c>
       <c r="R60" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S60" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T60" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U60" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V60" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W60" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X60" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y60" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F61" t="s">
-        <v>352</v>
-      </c>
-      <c r="G61" s="5">
+        <v>218</v>
+      </c>
+      <c r="G61" s="4">
         <v>5040</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="4">
         <v>4050</v>
       </c>
       <c r="I61">
@@ -6163,7 +6163,7 @@
       <c r="K61">
         <v>-127.18</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61" s="4">
         <v>500</v>
       </c>
       <c r="M61">
@@ -6173,62 +6173,62 @@
         <v>7</v>
       </c>
       <c r="O61" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P61" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>1</v>
       </c>
       <c r="R61" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S61" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T61" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U61" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V61" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W61" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X61" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y61" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="D62" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>353</v>
-      </c>
-      <c r="G62" s="5">
+        <v>339</v>
+      </c>
+      <c r="G62" s="4">
         <v>4490</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="4">
         <v>3670</v>
       </c>
       <c r="I62">
@@ -6240,72 +6240,72 @@
       <c r="K62">
         <v>-73.42</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62" s="4">
         <v>25</v>
       </c>
       <c r="M62">
         <v>31.2</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O62" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P62" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q62" t="b">
+        <v>1</v>
       </c>
       <c r="R62" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S62" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T62" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U62" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V62" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W62" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X62" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y62" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="D63" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" s="5">
+        <v>338</v>
+      </c>
+      <c r="G63" s="4">
         <v>4800</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="4">
         <v>3810</v>
       </c>
       <c r="I63">
@@ -6317,72 +6317,72 @@
       <c r="K63">
         <v>-52.73</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63" s="4">
         <v>65</v>
       </c>
       <c r="M63">
         <v>20.5</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O63" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q63" t="b">
+        <v>1</v>
       </c>
       <c r="R63" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S63" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T63" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U63" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V63" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W63" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X63" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y63" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="D64" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F64" t="s">
-        <v>354</v>
-      </c>
-      <c r="G64" s="5">
+        <v>337</v>
+      </c>
+      <c r="G64" s="4">
         <v>5390</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="4">
         <v>4470</v>
       </c>
       <c r="I64">
@@ -6394,7 +6394,7 @@
       <c r="K64">
         <v>-74.28</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L64" s="4">
         <v>360</v>
       </c>
       <c r="M64">
@@ -6404,62 +6404,62 @@
         <v>7</v>
       </c>
       <c r="O64" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q64" t="b">
+        <v>1</v>
       </c>
       <c r="R64" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S64" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T64" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U64" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V64" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W64" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X64" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y64" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="F65" t="s">
-        <v>355</v>
-      </c>
-      <c r="G65" s="5">
+        <v>221</v>
+      </c>
+      <c r="G65" s="4">
         <v>4850</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="4">
         <v>3860</v>
       </c>
       <c r="I65">
@@ -6471,67 +6471,67 @@
       <c r="K65">
         <v>-58.55</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="4">
         <v>25</v>
       </c>
       <c r="M65">
         <v>23.1</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O65" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P65" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q65" t="b">
+        <v>1</v>
       </c>
       <c r="R65" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S65" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T65" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U65" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V65" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W65" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X65" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y65" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="D66" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E66" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F66" t="s">
-        <v>356</v>
+        <v>224</v>
       </c>
       <c r="G66">
         <v>3388</v>
@@ -6552,65 +6552,65 @@
         <v>21.8</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="O66" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P66" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q66" t="b">
+        <v>1</v>
       </c>
       <c r="R66" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S66" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T66" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U66" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V66" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W66" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X66" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y66" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>255</v>
+        <v>317</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>275</v>
       </c>
       <c r="D67" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E67" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="F67" t="s">
-        <v>357</v>
-      </c>
-      <c r="G67" s="5">
+        <v>336</v>
+      </c>
+      <c r="G67" s="4">
         <v>5150</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="4">
         <v>4270</v>
       </c>
       <c r="I67">
@@ -6622,7 +6622,7 @@
       <c r="K67">
         <v>-107.68</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="4">
         <v>750</v>
       </c>
       <c r="M67">
@@ -6632,62 +6632,62 @@
         <v>7</v>
       </c>
       <c r="O67" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P67" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q67" t="b">
+        <v>1</v>
       </c>
       <c r="R67" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S67" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T67" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U67" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V67" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W67" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X67" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y67" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="D68" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E68" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="F68" t="s">
-        <v>358</v>
-      </c>
-      <c r="G68" s="5">
+        <v>227</v>
+      </c>
+      <c r="G68" s="4">
         <v>4530</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="4">
         <v>3630</v>
       </c>
       <c r="I68">
@@ -6699,72 +6699,72 @@
       <c r="K68">
         <v>-60.05</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68" s="4">
         <v>5</v>
       </c>
       <c r="M68">
         <v>24</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O68" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P68" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q68" t="b">
+        <v>1</v>
       </c>
       <c r="R68" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S68" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T68" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U68" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V68" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W68" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X68" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y68" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>276</v>
       </c>
       <c r="D69" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E69" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="F69" t="s">
-        <v>359</v>
-      </c>
-      <c r="G69" s="5">
+        <v>335</v>
+      </c>
+      <c r="G69" s="4">
         <v>6480</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="4">
         <v>5540</v>
       </c>
       <c r="I69">
@@ -6776,7 +6776,7 @@
       <c r="K69">
         <v>-101.1</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L69" s="4">
         <v>270</v>
       </c>
       <c r="M69">
@@ -6786,62 +6786,62 @@
         <v>7</v>
       </c>
       <c r="O69" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P69" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q69" t="b">
+        <v>1</v>
       </c>
       <c r="R69" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S69" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T69" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U69" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V69" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W69" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X69" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y69" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="D70" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F70" t="s">
-        <v>360</v>
-      </c>
-      <c r="G70" s="5">
+        <v>334</v>
+      </c>
+      <c r="G70" s="4">
         <v>5650</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="4">
         <v>4710</v>
       </c>
       <c r="I70">
@@ -6853,7 +6853,7 @@
       <c r="K70">
         <v>-89.32</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="4">
         <v>210</v>
       </c>
       <c r="M70">
@@ -6863,62 +6863,62 @@
         <v>7</v>
       </c>
       <c r="O70" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P70" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q70" t="b">
+        <v>1</v>
       </c>
       <c r="R70" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S70" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T70" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U70" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V70" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W70" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X70" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y70" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="C71" t="s">
-        <v>48</v>
+        <v>229</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E71" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F71" t="s">
-        <v>361</v>
-      </c>
-      <c r="G71" s="5">
+        <v>230</v>
+      </c>
+      <c r="G71" s="4">
         <v>5940</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="4">
         <v>4990</v>
       </c>
       <c r="I71">
@@ -6930,7 +6930,7 @@
       <c r="K71">
         <v>-81.37</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="4">
         <v>300</v>
       </c>
       <c r="M71">
@@ -6940,57 +6940,57 @@
         <v>7</v>
       </c>
       <c r="O71" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P71" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q71" t="b">
+        <v>1</v>
       </c>
       <c r="R71" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S71" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T71" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U71" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V71" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W71" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X71" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y71" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>181</v>
-      </c>
-      <c r="B72" t="s">
-        <v>260</v>
-      </c>
-      <c r="C72" t="s">
-        <v>49</v>
+        <v>95</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="D72" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E72" t="s">
-        <v>63</v>
-      </c>
-      <c r="F72" t="s">
-        <v>76</v>
+        <v>160</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="G72">
         <v>4088</v>
@@ -7011,65 +7011,65 @@
         <v>26.6</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O72" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P72" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q72" t="b">
+        <v>1</v>
       </c>
       <c r="R72" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S72" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T72" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U72" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V72" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W72" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X72" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y72" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>232</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E73" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F73" t="s">
-        <v>362</v>
-      </c>
-      <c r="G73" s="5">
+        <v>233</v>
+      </c>
+      <c r="G73" s="4">
         <v>4110</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="4">
         <v>3300</v>
       </c>
       <c r="I73">
@@ -7081,72 +7081,72 @@
       <c r="K73">
         <v>-77.53</v>
       </c>
-      <c r="L73" s="5">
+      <c r="L73" s="4">
         <v>80</v>
       </c>
       <c r="M73">
         <v>27.7</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O73" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P73" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q73" t="b">
+        <v>1</v>
       </c>
       <c r="R73" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S73" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T73" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U73" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V73" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W73" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X73" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y73" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="D74" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E74" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="F74" t="s">
-        <v>363</v>
-      </c>
-      <c r="G74" s="5">
+        <v>236</v>
+      </c>
+      <c r="G74" s="4">
         <v>4500</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74" s="4">
         <v>3600</v>
       </c>
       <c r="I74">
@@ -7158,72 +7158,72 @@
       <c r="K74">
         <v>-63.27</v>
       </c>
-      <c r="L74" s="5">
+      <c r="L74" s="4">
         <v>25</v>
       </c>
       <c r="M74">
         <v>25.2</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O74" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P74" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q74" t="b">
+        <v>1</v>
       </c>
       <c r="R74" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S74" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T74" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U74" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V74" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W74" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X74" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y74" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>184</v>
-      </c>
-      <c r="B75" t="s">
-        <v>263</v>
-      </c>
-      <c r="C75" t="s">
-        <v>52</v>
+        <v>98</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="D75" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E75" t="s">
-        <v>61</v>
-      </c>
-      <c r="F75" t="s">
-        <v>77</v>
-      </c>
-      <c r="G75" s="5">
+        <v>116</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G75" s="4">
         <v>6180</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="4">
         <v>5220</v>
       </c>
       <c r="I75">
@@ -7235,7 +7235,7 @@
       <c r="K75">
         <v>-77.78</v>
       </c>
-      <c r="L75" s="5">
+      <c r="L75" s="4">
         <v>310</v>
       </c>
       <c r="M75">
@@ -7245,57 +7245,57 @@
         <v>7</v>
       </c>
       <c r="O75" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P75" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q75" t="b">
+        <v>1</v>
       </c>
       <c r="R75" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S75" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T75" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U75" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V75" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W75" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X75" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y75" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>185</v>
-      </c>
-      <c r="B76" t="s">
-        <v>264</v>
-      </c>
-      <c r="C76" t="s">
-        <v>53</v>
+        <v>99</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="D76" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E76" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" t="s">
-        <v>78</v>
+        <v>107</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="G76">
         <v>3019</v>
@@ -7316,60 +7316,60 @@
         <v>13.9</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="O76" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P76" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q76" t="b">
+        <v>1</v>
       </c>
       <c r="R76" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S76" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T76" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U76" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V76" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W76" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X76" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y76" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>186</v>
-      </c>
-      <c r="B77" t="s">
-        <v>265</v>
-      </c>
-      <c r="C77" t="s">
-        <v>54</v>
+        <v>100</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
-        <v>66</v>
-      </c>
-      <c r="F77" t="s">
-        <v>79</v>
+        <v>107</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="G77">
         <v>3075</v>
@@ -7390,65 +7390,65 @@
         <v>12.3</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="O77" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P77" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q77" t="b">
+        <v>1</v>
       </c>
       <c r="R77" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S77" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T77" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U77" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V77" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W77" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X77" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y77" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="C78" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="F78" t="s">
-        <v>364</v>
-      </c>
-      <c r="G78" s="5">
+        <v>240</v>
+      </c>
+      <c r="G78" s="4">
         <v>6580</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="4">
         <v>5610</v>
       </c>
       <c r="I78">
@@ -7460,7 +7460,7 @@
       <c r="K78">
         <v>-135.07</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L78" s="4">
         <v>655</v>
       </c>
       <c r="M78">
@@ -7470,62 +7470,62 @@
         <v>7</v>
       </c>
       <c r="O78" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="P78" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q78" t="b">
+        <v>1</v>
       </c>
       <c r="R78" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S78" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T78" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U78" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V78" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W78" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X78" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y78" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="C79" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F79" t="s">
-        <v>365</v>
-      </c>
-      <c r="G79" s="5">
+        <v>243</v>
+      </c>
+      <c r="G79" s="4">
         <v>3400</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="4">
         <v>2650</v>
       </c>
       <c r="I79">
@@ -7537,67 +7537,67 @@
       <c r="K79">
         <v>-82.97</v>
       </c>
-      <c r="L79" s="5">
+      <c r="L79" s="4">
         <v>184</v>
       </c>
       <c r="M79">
         <v>27.1</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="O79" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P79" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q79" t="b">
+        <v>1</v>
       </c>
       <c r="R79" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="S79" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T79" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U79" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V79" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W79" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="X79" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y79" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>189</v>
-      </c>
-      <c r="B80" t="s">
-        <v>268</v>
-      </c>
-      <c r="C80" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="D80" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
-        <v>70</v>
-      </c>
-      <c r="F80" t="s">
-        <v>80</v>
+        <v>123</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="G80">
         <v>5754</v>
@@ -7621,41 +7621,41 @@
         <v>7</v>
       </c>
       <c r="O80" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P80" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="Q80" t="b">
+        <v>1</v>
       </c>
       <c r="R80" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S80" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="T80" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="U80" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="V80" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W80" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="X80" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="Y80" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H82" s="6"/>
+      <c r="H82" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Y80">
